--- a/Noviembre.xlsx
+++ b/Noviembre.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estebanvivanco/progra_vivanco/blackit/in/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estebanvivanco/progra_vivanco/emse/tb3/logiciel-socle-rtd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9668894-64F0-2E41-A122-D0E2B84274DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCC31E2-6FBC-7F48-8F81-4FD26334718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cartola Historica CtaCte" sheetId="2" r:id="rId1"/>
+    <sheet name="Noviembre" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -842,19 +842,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -868,6 +855,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,1249 +1173,1329 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="8" customWidth="1"/>
-    <col min="3" max="4" width="23.33203125" style="8" customWidth="1"/>
-    <col min="5" max="8" width="20.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="20.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="5">
         <v>17808101</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="5">
         <v>404865</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>13188595</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="5">
         <v>-12529003</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="5">
         <v>18872558</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>1500000</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="13">
         <v>0</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13">
         <v>1500000</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="5">
         <v>-4500000</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="2">
         <v>81086770</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="5">
         <v>-2328354</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="5">
         <v>-958415</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="5">
         <v>-500000</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="2">
         <v>74180701</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="5">
         <v>-322431</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="2">
         <v>73843057</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="5">
         <v>-44715</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="2">
         <v>73843057</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="5">
         <v>-19591</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="2">
         <v>73843057</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="5">
         <v>-19591</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="2">
         <v>73843057</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="5">
         <v>592420</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="2">
         <v>16000548</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="8"/>
+      <c r="I25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="5">
         <v>136187</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="2">
         <v>16000548</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="5">
         <v>10305662</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="5">
         <v>-804358</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="2">
         <v>290382205</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="5">
         <v>-789664</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="2">
         <v>73843057</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="8"/>
+      <c r="I29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="5">
         <v>-161573</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="2">
         <v>73843057</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="5">
         <v>404865</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="5">
         <v>-222670</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="9" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="5">
         <v>-309580</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="9" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="5">
         <v>-1000000</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="2">
         <v>80301502</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="9" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="5">
         <v>-331529</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="2">
         <v>291106867</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="9" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="5">
         <v>-3363</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="2">
         <v>1246929</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="9" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="5">
         <v>364662</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="2">
         <v>39213260</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="9" t="s">
+      <c r="H37" s="8"/>
+      <c r="I37" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="5">
         <v>-90827</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="9" t="s">
+      <c r="H38" s="8"/>
+      <c r="I38" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="5">
         <v>-30054</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="9" t="s">
+      <c r="H39" s="8"/>
+      <c r="I39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="A40" s="5">
         <v>1000000</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="2">
         <v>14211126</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="9" t="s">
+      <c r="H40" s="8"/>
+      <c r="I40" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="A41" s="5">
         <v>789664</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="2">
         <v>14211126</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="9" t="s">
+      <c r="H41" s="8"/>
+      <c r="I41" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="A42" s="5">
         <v>-92288</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="9" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="11" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="11" t="s">
+      <c r="H44" s="8"/>
+      <c r="I44" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="3">
         <v>-30.053999999999998</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="9" t="s">
+      <c r="H45" s="8"/>
+      <c r="I45" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="7">
         <v>9115004</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+      <c r="A49" s="7">
         <v>9843611</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+      <c r="A50" s="7">
         <v>20149273</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+      <c r="A51" s="7">
         <v>19344915</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
+      <c r="A52" s="7">
         <v>18393678</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+      <c r="A53" s="7">
         <v>18575873</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+      <c r="A54" s="7">
         <v>18266293</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+      <c r="A55" s="7">
         <v>16931401</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
+      <c r="A56" s="7">
         <v>17296063</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="7">
         <v>17205236</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+      <c r="A58" s="7">
         <v>17175182</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+      <c r="A59" s="7">
         <v>18872558</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B53:C53"/>
@@ -2423,86 +2503,6 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Noviembre.xlsx
+++ b/Noviembre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
   <si>
     <t>Monto</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Cargo/Abono</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Sr. (a):</t>
@@ -656,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,1216 +693,1393 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>17808101</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>404865</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>13188595</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-12529003</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>18872558</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="B13">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>1500000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1500000</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>-4500000</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
+      <c r="D17" t="s">
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17">
         <v>81086770</v>
       </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
         <v>-2328354</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
+      <c r="D18" t="s">
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>-958415</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>-500000</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20">
         <v>74180701</v>
       </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>-322431</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
+      <c r="D21" t="s">
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21">
         <v>73843057</v>
       </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
         <v>-44715</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
+      <c r="D22" t="s">
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22">
         <v>73843057</v>
       </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>-19591</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
+      <c r="D23" t="s">
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23">
         <v>73843057</v>
       </c>
-      <c r="H23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
         <v>-19591</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
+      <c r="D24" t="s">
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24">
         <v>73843057</v>
       </c>
-      <c r="H24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
         <v>592420</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
+      <c r="D25" t="s">
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25">
         <v>16000548</v>
       </c>
-      <c r="H25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
         <v>136187</v>
       </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
+      <c r="D26" t="s">
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26">
         <v>16000548</v>
       </c>
-      <c r="H26" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
         <v>10305662</v>
       </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
+      <c r="D27" t="s">
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
         <v>-804358</v>
       </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
+      <c r="D28" t="s">
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28">
         <v>290382205</v>
       </c>
-      <c r="H28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
         <v>-789664</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
+      <c r="D29" t="s">
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29">
         <v>73843057</v>
       </c>
-      <c r="H29" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
         <v>-161573</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
+      <c r="D30" t="s">
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
         <v>73843057</v>
       </c>
-      <c r="H30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>404865</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
+      <c r="D31" t="s">
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
         <v>-222670</v>
       </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
+      <c r="D32" t="s">
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
         <v>-309580</v>
       </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
+      <c r="D33" t="s">
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
         <v>-1000000</v>
       </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
+      <c r="D34" t="s">
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34">
         <v>80301502</v>
       </c>
-      <c r="H34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="I34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
         <v>-331529</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
+      <c r="D35" t="s">
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35">
         <v>291106867</v>
       </c>
-      <c r="H35" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
         <v>-3363</v>
       </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
+      <c r="D36" t="s">
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36">
         <v>1246929</v>
       </c>
-      <c r="H36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
         <v>364662</v>
       </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>69</v>
+      <c r="D37" t="s">
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37">
         <v>39213260</v>
       </c>
-      <c r="H37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
         <v>-90827</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
+      <c r="D38" t="s">
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="I38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>-30054</v>
       </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
+      <c r="D39" t="s">
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
         <v>1000000</v>
       </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s">
-        <v>69</v>
+      <c r="D40" t="s">
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40">
         <v>14211126</v>
       </c>
-      <c r="H40" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="I40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
         <v>789664</v>
       </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
+      <c r="D41" t="s">
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41">
         <v>14211126</v>
       </c>
-      <c r="H41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
         <v>-92288</v>
       </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" t="s">
-        <v>66</v>
+      <c r="D42" t="s">
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="I42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>21</v>
+      <c r="B43">
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>20</v>
+      <c r="B44">
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="I44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
         <v>-30.054</v>
       </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45">
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>23</v>
+      <c r="B47">
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
         <v>9115004</v>
       </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>9843611</v>
       </c>
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
         <v>20149273</v>
       </c>
-      <c r="C50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
         <v>19344915</v>
       </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
         <v>18393678</v>
       </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
         <v>18575873</v>
       </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
         <v>18266293</v>
       </c>
-      <c r="C54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
         <v>16931401</v>
       </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
         <v>17296063</v>
       </c>
-      <c r="C56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
         <v>17205236</v>
       </c>
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
         <v>17175182</v>
       </c>
-      <c r="C58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
         <v>18872558</v>
       </c>
-      <c r="C59" t="s">
-        <v>60</v>
+      <c r="D59" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
